--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,8 +439,8 @@
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,15 +451,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Vencimento</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -468,16 +473,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>carro</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>39083</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>46054</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Pago</t>
         </is>

--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,13 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +442,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Descricao</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Vencimento</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -473,21 +474,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gasolina</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>46054</v>
+          <t>Sálario</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pagamentos</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3000</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Pago</t>
         </is>

--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,28 +474,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Entrada</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sálario</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Salario</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Pagamentos</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>3000</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pago</t>
         </is>

--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +437,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,26 +479,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saida</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Pagamento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lazer</t>
+          <t>Pagamentos</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
+        <v>3000</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>46078</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -504,30 +507,140 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gasolina</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>46078</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>46063</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mxrf11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Investimento</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>46063</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fixo</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>46078</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Entrada</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Salario</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pagamentos</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2026-02-28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pago</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mxrf11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rendimentos</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>46081</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pendente</t>
         </is>
       </c>
     </row>

--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,90 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>46064</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A_eduarda_é_linda_demais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9999</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>46064</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A_eduarda_é_linda_demais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>9999</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>46064</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,6 +728,34 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Saida</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fixo</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>46065</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Minhas_Contas.xlsx
+++ b/Minhas_Contas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,146 +616,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mxrf11</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Rendimentos</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>46081</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Saida</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>46064</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Saida</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A_eduarda_é_linda_demais</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9999</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>46064</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Saida</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>A_eduarda_é_linda_demais</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>9999</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>46064</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Saida</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Carro</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Fixo</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>46065</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
